--- a/class_20190326/Excelcase.xlsx
+++ b/class_20190326/Excelcase.xlsx
@@ -100,7 +100,7 @@
     <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
   </si>
   <si>
-    <t>4213064.00</t>
+    <t>4366152.00</t>
   </si>
   <si>
     <t>充值</t>
@@ -121,10 +121,10 @@
     <t>{'code': '10001', 'status': 1, 'msg': '充值成功', 'data': {'mobilephone': '13512365669', 'regtime': '2019-03-10 20:10:00.0', 'type': '1', 'leaveamount': 'Money', 'regname': 'å°\x8få°\x8fé\x9bª', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1123430}}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1123430,"regname":"å°å°éª","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13512365669","leaveamount":"4413064.00","type":"1","regtime":"2019-03-10 20:10:00.0"},"msg":"充值成功"}</t>
-  </si>
-  <si>
-    <t>4413064.00</t>
+    <t>{"status":1,"code":"10001","data":{"id":1123430,"regname":"å°å°éª","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13512365669","leaveamount":"4566152.00","type":"1","regtime":"2019-03-10 20:10:00.0"},"msg":"充值成功"}</t>
+  </si>
+  <si>
+    <t>4566152.00</t>
   </si>
   <si>
     <t>提现</t>
@@ -142,10 +142,10 @@
     <t>{'data': {'type': '1', 'leaveamount': 'Money', 'pwd': 'E10ADC3949BA59ABBE56E057F20F883E', 'id': 1123430, 'regtime': '2019-03-10 20:10:00.0', 'mobilephone': '13512365669', 'regname': 'å°\x8få°\x8fé\x9bª'}, 'msg': '取现成功', 'code': '10001', 'status': 1}</t>
   </si>
   <si>
-    <t>{"status":1,"code":"10001","data":{"id":1123430,"regname":"å°å°éª","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13512365669","leaveamount":"4289608.00","type":"1","regtime":"2019-03-10 20:10:00.0"},"msg":"取现成功"}</t>
-  </si>
-  <si>
-    <t>4289608.00</t>
+    <t>{"status":1,"code":"10001","data":{"id":1123430,"regname":"å°å°éª","pwd":"E10ADC3949BA59ABBE56E057F20F883E","mobilephone":"13512365669","leaveamount":"4442696.00","type":"1","regtime":"2019-03-10 20:10:00.0"},"msg":"取现成功"}</t>
+  </si>
+  <si>
+    <t>4442696.00</t>
   </si>
   <si>
     <t>加标</t>
@@ -208,7 +208,7 @@
     <t>{"status":1,"code":"10001","data":null,"msg":"竞标成功"}</t>
   </si>
   <si>
-    <t>4279608.00</t>
+    <t>4432696.00</t>
   </si>
 </sst>
 </file>
@@ -773,7 +773,7 @@
         <v>19</v>
       </c>
       <c r="B1" t="n">
-        <v>17757707994</v>
+        <v>17757708001</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1223,7 @@
         <v>18</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row customHeight="1" ht="86.40000000000001" r="3" s="2" spans="1:11">
@@ -1258,7 +1258,7 @@
         <v>18</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row customHeight="1" ht="86.40000000000001" r="4" s="2" spans="1:11">
@@ -1291,7 +1291,7 @@
         <v>18</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
